--- a/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
+++ b/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Time</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Art. pO2 (% Norm)</t>
+  </si>
+  <si>
+    <t>***No reset used between the first chart and exercise and heart rate at 0 taken with patient standing. Patient didn’t give up</t>
   </si>
 </sst>
 </file>
@@ -148,12 +151,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -244,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -261,24 +270,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:G32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,7 +605,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -606,7 +622,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="7"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -620,7 +636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -637,7 +653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -654,7 +670,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30.75" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -671,7 +687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -688,7 +704,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45.75" thickBot="1">
+    <row r="7" spans="1:5" ht="30.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -705,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45.75" thickBot="1">
+    <row r="8" spans="1:5" ht="30.75" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -722,7 +738,7 @@
         <v>4618</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -790,7 +806,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45.75" thickBot="1">
+    <row r="13" spans="1:5" ht="30.75" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -807,7 +823,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -841,7 +857,7 @@
         <v>5759</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45.75" thickBot="1">
+    <row r="16" spans="1:5" ht="30.75" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -858,7 +874,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30.75" thickBot="1">
+    <row r="17" spans="1:12" ht="30.75" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -875,7 +891,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30.75" thickBot="1">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -892,32 +908,32 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="8" t="s">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="3">
@@ -939,178 +955,198 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>0</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>0.02</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>0.04</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>0.06</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="3">
-        <v>99</v>
-      </c>
-      <c r="C23" s="3">
-        <v>144</v>
-      </c>
-      <c r="D23" s="3">
-        <v>161</v>
-      </c>
-      <c r="E23" s="3">
-        <v>196</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:7" ht="30.75" thickBot="1">
+      <c r="B23" s="5">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5">
+        <v>124</v>
+      </c>
+      <c r="D23" s="5">
+        <v>136</v>
+      </c>
+      <c r="E23" s="5">
+        <v>145</v>
+      </c>
+      <c r="F23" s="5">
+        <v>157</v>
+      </c>
+      <c r="G23" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="11">
-        <v>0.68263888888888891</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30.75" thickBot="1">
+      <c r="B25" s="10">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="8">
-        <v>8647</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="28" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A28" s="8" t="s">
+      <c r="B26" s="7">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
+      <c r="A27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B30" s="8">
         <v>500</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C30" s="8">
         <v>1000</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D30" s="8">
         <v>1500</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E30" s="8">
         <v>2000</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F30" s="8">
         <v>2500</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G30" s="8">
         <v>3000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A29" s="4" t="s">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B31" s="5">
         <v>100</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C31" s="5">
         <v>100.6</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D31" s="5">
         <v>100.87</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E31" s="5">
         <v>101.2</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F31" s="5">
         <v>103.2</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G31" s="5">
         <v>106.14</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A30" s="4" t="s">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B32" s="5">
         <v>0.2</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C32" s="5">
         <v>0.19</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D32" s="5">
         <v>0.18</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E32" s="5">
         <v>0.17</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F32" s="5">
         <v>0.17</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G32" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A31" s="4" t="s">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B33" s="5">
         <v>86</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C33" s="5">
         <v>71</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D33" s="5">
         <v>62</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E33" s="5">
         <v>54</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F33" s="5">
         <v>48</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G33" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A32" s="4" t="s">
+    <row r="34" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B34" s="5">
         <v>94.5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C34" s="5">
         <v>78</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D34" s="5">
         <v>68.13</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E34" s="5">
         <v>59.3</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F34" s="5">
         <v>52.75</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G34" s="5">
         <v>46.15</v>
       </c>
     </row>

--- a/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
+++ b/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Time</t>
   </si>
@@ -45,18 +45,6 @@
     <t>Blood Pressure</t>
   </si>
   <si>
-    <t>123/78</t>
-  </si>
-  <si>
-    <t>125/81</t>
-  </si>
-  <si>
-    <t>130/85</t>
-  </si>
-  <si>
-    <t>141/106</t>
-  </si>
-  <si>
     <t>Cardiac Output</t>
   </si>
   <si>
@@ -129,7 +117,10 @@
     <t>Art. pO2 (% Norm)</t>
   </si>
   <si>
-    <t>***No reset used between the first chart and exercise and heart rate at 0 taken with patient standing. Patient didn’t give up</t>
+    <t>***No reset used between the first chart and exercise and heart rate at 0 taken with patient standing.</t>
+  </si>
+  <si>
+    <t>These values taken after 10 minutes</t>
   </si>
 </sst>
 </file>
@@ -253,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -285,16 +276,22 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:L27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,7 +602,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -622,7 +619,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="12"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -644,10 +641,10 @@
         <v>91</v>
       </c>
       <c r="C3" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="5">
         <v>47</v>
@@ -675,13 +672,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5">
         <v>33</v>
@@ -698,7 +695,7 @@
         <v>0.13</v>
       </c>
       <c r="D6" s="5">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E6" s="5">
         <v>0.18</v>
@@ -708,39 +705,39 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
+      <c r="B7" s="5">
+        <v>97</v>
+      </c>
+      <c r="C7" s="5">
+        <v>99</v>
+      </c>
+      <c r="D7" s="5">
+        <v>104</v>
+      </c>
+      <c r="E7" s="5">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30.75" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>5361</v>
+        <v>5346</v>
       </c>
       <c r="C8" s="5">
-        <v>5575</v>
+        <v>5604</v>
       </c>
       <c r="D8" s="5">
-        <v>5744</v>
+        <v>5694</v>
       </c>
       <c r="E8" s="5">
-        <v>4618</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5">
         <v>72</v>
@@ -749,24 +746,24 @@
         <v>75</v>
       </c>
       <c r="D9" s="5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E9" s="5">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30.75" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="5">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="5">
         <v>58</v>
@@ -774,7 +771,7 @@
     </row>
     <row r="11" spans="1:5" ht="30.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5">
         <v>1.5</v>
@@ -783,7 +780,7 @@
         <v>1.7</v>
       </c>
       <c r="D11" s="5">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E11" s="5">
         <v>1.8</v>
@@ -791,7 +788,7 @@
     </row>
     <row r="12" spans="1:5" ht="30.75" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -800,109 +797,109 @@
         <v>2</v>
       </c>
       <c r="D12" s="5">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30.75" thickBot="1">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5">
-        <v>0.11600000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="C13" s="5">
-        <v>0.122</v>
+        <v>0.13</v>
       </c>
       <c r="D13" s="5">
-        <v>0.16600000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E13" s="5">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="D14" s="5">
-        <v>4180</v>
+        <v>6148</v>
       </c>
       <c r="E14" s="5">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30.75" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="5">
-        <v>5400</v>
+        <v>5413</v>
       </c>
       <c r="C15" s="5">
-        <v>5402</v>
+        <v>5413</v>
       </c>
       <c r="D15" s="5">
-        <v>5431</v>
+        <v>5391</v>
       </c>
       <c r="E15" s="5">
-        <v>5759</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30.75" thickBot="1">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5">
-        <v>2400</v>
+        <v>2451</v>
       </c>
       <c r="C16" s="5">
-        <v>2400</v>
+        <v>2451</v>
       </c>
       <c r="D16" s="5">
-        <v>2408</v>
+        <v>2459</v>
       </c>
       <c r="E16" s="5">
-        <v>3527</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30.75" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5">
-        <v>3000</v>
+        <v>2962</v>
       </c>
       <c r="C17" s="5">
-        <v>3002</v>
+        <v>2962</v>
       </c>
       <c r="D17" s="5">
-        <v>3023</v>
+        <v>2963</v>
       </c>
       <c r="E17" s="5">
-        <v>2232</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" s="5">
         <v>61</v>
@@ -914,27 +911,27 @@
         <v>0</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -957,7 +954,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" s="9">
         <v>0</v>
@@ -980,10 +977,10 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" s="5">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C23" s="5">
         <v>124</v>
@@ -998,46 +995,46 @@
         <v>157</v>
       </c>
       <c r="G23" s="5">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" s="10">
-        <v>0.20833333333333334</v>
+        <v>0.2673611111111111</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
+      <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="7">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="30" spans="1:12" ht="30.75" thickBot="1">
       <c r="A30" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B30" s="8">
         <v>500</v>
@@ -1060,25 +1057,25 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="5">
-        <v>100</v>
-      </c>
-      <c r="C31" s="5">
-        <v>100.6</v>
-      </c>
-      <c r="D31" s="5">
-        <v>100.87</v>
-      </c>
-      <c r="E31" s="5">
-        <v>101.2</v>
-      </c>
-      <c r="F31" s="5">
-        <v>103.2</v>
-      </c>
-      <c r="G31" s="5">
-        <v>106.14</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="15">
+        <v>9.35E-2</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0.4259</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0.48680000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1">
@@ -1092,16 +1089,16 @@
         <v>0.19</v>
       </c>
       <c r="D32" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="E32" s="5">
         <v>0.18</v>
-      </c>
-      <c r="E32" s="5">
-        <v>0.17</v>
       </c>
       <c r="F32" s="5">
         <v>0.17</v>
       </c>
       <c r="G32" s="5">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1">
@@ -1109,19 +1106,19 @@
         <v>4</v>
       </c>
       <c r="B33" s="5">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C33" s="5">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" s="5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G33" s="5">
         <v>42</v>
@@ -1129,25 +1126,30 @@
     </row>
     <row r="34" spans="1:7" ht="30.75" thickBot="1">
       <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="5">
-        <v>94.5</v>
-      </c>
-      <c r="C34" s="5">
-        <v>78</v>
-      </c>
-      <c r="D34" s="5">
-        <v>68.13</v>
-      </c>
-      <c r="E34" s="5">
-        <v>59.3</v>
-      </c>
-      <c r="F34" s="5">
-        <v>52.75</v>
-      </c>
-      <c r="G34" s="5">
-        <v>46.15</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="15">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0.46150000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="A36" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
+++ b/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>Time</t>
   </si>
@@ -121,6 +121,30 @@
   </si>
   <si>
     <t>These values taken after 10 minutes</t>
+  </si>
+  <si>
+    <t>120/97/79</t>
+  </si>
+  <si>
+    <t>119/95/78</t>
+  </si>
+  <si>
+    <t>105/83/66</t>
+  </si>
+  <si>
+    <t>QCP</t>
+  </si>
+  <si>
+    <t>HumMod</t>
+  </si>
+  <si>
+    <t>***HumMod crashes long before the month due to a math error that involves dividing by zero</t>
+  </si>
+  <si>
+    <t>I didn't run this because until HumMod can run for the full month this wont be an acurate comparison between QCP and HumMod since this info was run for a month in QCP</t>
+  </si>
+  <si>
+    <t>Ran simulation for 10 minutes before recording these values</t>
   </si>
 </sst>
 </file>
@@ -244,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -280,9 +304,6 @@
       <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -291,6 +312,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="J26" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -601,8 +631,8 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -617,9 +647,15 @@
       <c r="E1" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="14"/>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A2" s="17"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -632,8 +668,23 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="K2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -649,8 +700,21 @@
       <c r="E3" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="K3" s="17"/>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -666,8 +730,21 @@
       <c r="E4" s="5">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="K4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5">
+        <v>93</v>
+      </c>
+      <c r="M4" s="5">
+        <v>49</v>
+      </c>
+      <c r="N4" s="5">
+        <v>40</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="30.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -683,8 +760,21 @@
       <c r="E5" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+      <c r="K5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.192</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.183</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" ht="30.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -700,8 +790,21 @@
       <c r="E6" s="5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" thickBot="1">
+      <c r="K6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="5">
+        <v>42</v>
+      </c>
+      <c r="M6" s="5">
+        <v>32</v>
+      </c>
+      <c r="N6" s="5">
+        <v>29</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" ht="30.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -717,8 +820,21 @@
       <c r="E7" s="5">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" thickBot="1">
+      <c r="K7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="45.75" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -734,8 +850,21 @@
       <c r="E8" s="5">
         <v>4570</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="K8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="45.75" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -751,8 +880,21 @@
       <c r="E9" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1">
+      <c r="K9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="5">
+        <v>5468</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5614</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5266</v>
+      </c>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="30.75" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -768,8 +910,21 @@
       <c r="E10" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30.75" thickBot="1">
+      <c r="K10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5">
+        <v>72</v>
+      </c>
+      <c r="M10" s="5">
+        <v>72</v>
+      </c>
+      <c r="N10" s="5">
+        <v>72</v>
+      </c>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="30.75" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -785,8 +940,21 @@
       <c r="E11" s="5">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30.75" thickBot="1">
+      <c r="K11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="5">
+        <v>76</v>
+      </c>
+      <c r="M11" s="5">
+        <v>77</v>
+      </c>
+      <c r="N11" s="5">
+        <v>73</v>
+      </c>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="30.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -802,8 +970,21 @@
       <c r="E12" s="5">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30.75" thickBot="1">
+      <c r="K12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" ht="30.75" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -819,8 +1000,21 @@
       <c r="E13" s="5">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+      <c r="K13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" ht="45.75" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -836,8 +1030,21 @@
       <c r="E14" s="5">
         <v>322</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" thickBot="1">
+      <c r="K14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="30.75" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -853,8 +1060,21 @@
       <c r="E15" s="5">
         <v>5769</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1">
+      <c r="K15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M15" s="5">
+        <v>263.7</v>
+      </c>
+      <c r="N15" s="5">
+        <v>493.5</v>
+      </c>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="30.75" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -870,8 +1090,21 @@
       <c r="E16" s="5">
         <v>3533</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="30.75" thickBot="1">
+      <c r="K16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="5">
+        <v>5421</v>
+      </c>
+      <c r="M16" s="5">
+        <v>5424</v>
+      </c>
+      <c r="N16" s="5">
+        <v>5257</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:28" ht="45.75" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -887,8 +1120,21 @@
       <c r="E17" s="5">
         <v>2236</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+      <c r="K17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2340</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2340</v>
+      </c>
+      <c r="N17" s="5">
+        <v>2349</v>
+      </c>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:28" ht="30.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -904,9 +1150,36 @@
       <c r="E18" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="5">
+        <v>3081</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3084</v>
+      </c>
+      <c r="N18" s="5">
+        <v>2908</v>
+      </c>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:28" ht="30.75" thickBot="1">
+      <c r="K19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="5">
+        <v>43</v>
+      </c>
+      <c r="M19" s="5">
+        <v>43</v>
+      </c>
+      <c r="N19" s="5">
+        <v>45</v>
+      </c>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -929,7 +1202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:28" ht="16.5" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
@@ -951,8 +1224,21 @@
       <c r="G21" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+      <c r="K21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -975,7 +1261,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:28" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -998,24 +1284,88 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:12" ht="30.75" thickBot="1">
+    <row r="24" spans="1:28" ht="15.75" thickBot="1">
+      <c r="K24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="30.75" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="10">
         <v>0.2673611111111111</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
+      <c r="K25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>6</v>
+      </c>
+      <c r="N25" s="3">
+        <v>6</v>
+      </c>
+      <c r="O25" s="3">
+        <v>6</v>
+      </c>
+      <c r="P25" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="30.75" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="7">
         <v>3384</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75">
+      <c r="K26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="30.75" thickBot="1">
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
@@ -1028,11 +1378,38 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:12" ht="30.75" thickBot="1">
+      <c r="K27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" thickBot="1">
+      <c r="L29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+    </row>
+    <row r="30" spans="1:28" ht="30.75" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -1055,30 +1432,51 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:28" ht="45.75" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>9.35E-2</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>0.18640000000000001</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="14">
         <v>0.27679999999999999</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>0.35730000000000001</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <v>0.4259</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>0.48680000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+      <c r="K31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="8">
+        <v>500</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="8">
+        <v>1500</v>
+      </c>
+      <c r="O31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="P31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="30.75" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -1100,8 +1498,29 @@
       <c r="G32" s="5">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1">
+      <c r="K32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="5">
+        <v>9.15</v>
+      </c>
+      <c r="M32" s="5">
+        <v>18.3</v>
+      </c>
+      <c r="N32" s="5">
+        <v>27.3</v>
+      </c>
+      <c r="O32" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="P32" s="5">
+        <v>41.8</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30.75" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1123,38 +1542,114 @@
       <c r="G33" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30.75" thickBot="1">
+      <c r="K33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.186</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="30.75" thickBot="1">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>0.91200000000000003</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>0.76919999999999999</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="14">
         <v>0.67030000000000001</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>0.57140000000000002</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <v>0.50549999999999995</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <v>0.46150000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="45">
-      <c r="A36" s="16" t="s">
+      <c r="K34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="5">
+        <v>85</v>
+      </c>
+      <c r="M34" s="5">
+        <v>72</v>
+      </c>
+      <c r="N34" s="5">
+        <v>61</v>
+      </c>
+      <c r="O34" s="5">
+        <v>49</v>
+      </c>
+      <c r="P34" s="5">
+        <v>39</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="45.75" thickBot="1">
+      <c r="K35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="5">
+        <v>91.4</v>
+      </c>
+      <c r="M35" s="5">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="N35" s="5">
+        <v>65.59</v>
+      </c>
+      <c r="O35" s="5">
+        <v>52.7</v>
+      </c>
+      <c r="P35" s="5">
+        <v>41.9</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="45">
+      <c r="A36" s="15" t="s">
         <v>34</v>
       </c>
+      <c r="K36" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
+++ b/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
   <si>
     <t>Time</t>
   </si>
@@ -123,15 +123,6 @@
     <t>These values taken after 10 minutes</t>
   </si>
   <si>
-    <t>120/97/79</t>
-  </si>
-  <si>
-    <t>119/95/78</t>
-  </si>
-  <si>
-    <t>105/83/66</t>
-  </si>
-  <si>
     <t>QCP</t>
   </si>
   <si>
@@ -145,13 +136,16 @@
   </si>
   <si>
     <t>Ran simulation for 10 minutes before recording these values</t>
+  </si>
+  <si>
+    <t>% Difference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +158,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -265,10 +266,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -307,13 +309,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -322,11 +318,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="10"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -616,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J26" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="T23" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,8 +723,8 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -648,14 +740,17 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A2" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A2" s="18"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -668,7 +763,7 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -683,8 +778,23 @@
       <c r="O2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+      <c r="W2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -700,7 +810,7 @@
       <c r="E3" s="5">
         <v>47</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
@@ -713,8 +823,21 @@
       <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W3" s="18"/>
+      <c r="X3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="30.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -743,8 +866,23 @@
         <v>40</v>
       </c>
       <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="19">
+        <f>ABS((B3-L4)/B3)</f>
+        <v>2.197802197802198E-2</v>
+      </c>
+      <c r="Y4" s="19">
+        <f t="shared" ref="Y4:AA4" si="0">ABS((C3-M4)/C3)</f>
+        <v>5.7692307692307696E-2</v>
+      </c>
+      <c r="Z4" s="19">
+        <f t="shared" si="0"/>
+        <v>0.24528301886792453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="30.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -773,8 +911,23 @@
         <v>0.183</v>
       </c>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="19">
+        <f t="shared" ref="X5:X19" si="1">ABS((B4-L5)/B4)</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="Y5" s="19">
+        <f t="shared" ref="Y5:Y19" si="2">ABS((C4-M5)/C4)</f>
+        <v>3.3333333333333368E-2</v>
+      </c>
+      <c r="Z5" s="19">
+        <f t="shared" ref="Z5:Z19" si="3">ABS((D4-N5)/D4)</f>
+        <v>1.6666666666666684E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="30.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -803,8 +956,23 @@
         <v>29</v>
       </c>
       <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="Y6" s="19">
+        <f t="shared" si="2"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="Z6" s="19">
+        <f t="shared" si="3"/>
+        <v>0.12121212121212122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="30.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -833,8 +1001,23 @@
         <v>0.15</v>
       </c>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="45.75" thickBot="1">
+      <c r="W7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="19">
+        <f t="shared" si="2"/>
+        <v>1.5384615384615398E-2</v>
+      </c>
+      <c r="Z7" s="19">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571286E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="45.75" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -853,18 +1036,33 @@
       <c r="K8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>37</v>
+      <c r="L8" s="5">
+        <v>97</v>
+      </c>
+      <c r="M8" s="5">
+        <v>95</v>
+      </c>
+      <c r="N8" s="5">
+        <v>83</v>
       </c>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="45.75" thickBot="1">
+      <c r="W8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="19">
+        <f t="shared" si="2"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="Z8" s="19">
+        <f t="shared" si="3"/>
+        <v>0.20192307692307693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="45.75" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -893,8 +1091,23 @@
         <v>5266</v>
       </c>
       <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="X9" s="19">
+        <f t="shared" si="1"/>
+        <v>2.2820800598578377E-2</v>
+      </c>
+      <c r="Y9" s="19">
+        <f t="shared" si="2"/>
+        <v>1.7844396859386152E-3</v>
+      </c>
+      <c r="Z9" s="19">
+        <f t="shared" si="3"/>
+        <v>7.5166842290129959E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="30.75" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -923,8 +1136,23 @@
         <v>72</v>
       </c>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="19">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="Z10" s="19">
+        <f t="shared" si="3"/>
+        <v>8.8607594936708861E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="30.75" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -953,8 +1181,23 @@
         <v>73</v>
       </c>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="19">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="Y11" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="Z11" s="19">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="30.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -983,8 +1226,23 @@
         <v>1.57</v>
       </c>
       <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="19">
+        <f t="shared" si="2"/>
+        <v>0.10588235294117644</v>
+      </c>
+      <c r="Z12" s="19">
+        <f t="shared" si="3"/>
+        <v>0.12777777777777777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="30.75" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -1013,8 +1271,23 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="45.75" thickBot="1">
+      <c r="W13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="19">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y13" s="19">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Z13" s="19">
+        <f t="shared" si="3"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="45.75" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1043,8 +1316,23 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="Y14" s="19">
+        <f t="shared" si="2"/>
+        <v>9.2307692307692382E-2</v>
+      </c>
+      <c r="Z14" s="19">
+        <f t="shared" si="3"/>
+        <v>5.4933333333333332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="30.75" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1073,8 +1361,23 @@
         <v>493.5</v>
       </c>
       <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" ht="30.75" thickBot="1">
+      <c r="W15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" s="19">
+        <f t="shared" si="1"/>
+        <v>0.11428571428571421</v>
+      </c>
+      <c r="Y15" s="19">
+        <f t="shared" si="2"/>
+        <v>3.4117647058823482E-2</v>
+      </c>
+      <c r="Z15" s="19">
+        <f t="shared" si="3"/>
+        <v>0.91972999349381912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="30.75" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1103,8 +1406,23 @@
         <v>5257</v>
       </c>
       <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:28" ht="45.75" thickBot="1">
+      <c r="W16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X16" s="19">
+        <f t="shared" si="1"/>
+        <v>1.4779235174579716E-3</v>
+      </c>
+      <c r="Y16" s="19">
+        <f t="shared" si="2"/>
+        <v>2.032144836504711E-3</v>
+      </c>
+      <c r="Z16" s="19">
+        <f t="shared" si="3"/>
+        <v>2.4856241884622519E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="45.75" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1133,8 +1451,23 @@
         <v>2349</v>
       </c>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:28" ht="30.75" thickBot="1">
+      <c r="W17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" s="19">
+        <f t="shared" si="1"/>
+        <v>4.528763769889841E-2</v>
+      </c>
+      <c r="Y17" s="19">
+        <f t="shared" si="2"/>
+        <v>4.528763769889841E-2</v>
+      </c>
+      <c r="Z17" s="19">
+        <f t="shared" si="3"/>
+        <v>4.4733631557543715E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="30.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1163,8 +1496,23 @@
         <v>2908</v>
       </c>
       <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:28" ht="30.75" thickBot="1">
+      <c r="W18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="X18" s="19">
+        <f t="shared" si="1"/>
+        <v>4.0175557056043212E-2</v>
+      </c>
+      <c r="Y18" s="19">
+        <f t="shared" si="2"/>
+        <v>4.1188386225523295E-2</v>
+      </c>
+      <c r="Z18" s="19">
+        <f t="shared" si="3"/>
+        <v>1.8562267971650354E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30.75" thickBot="1">
       <c r="K19" s="13" t="s">
         <v>19</v>
       </c>
@@ -1178,8 +1526,23 @@
         <v>45</v>
       </c>
       <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1">
+      <c r="W19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19" s="19">
+        <f t="shared" si="1"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="Y19" s="19">
+        <f t="shared" si="2"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="Z19" s="19">
+        <f t="shared" si="3"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="16.5" thickBot="1">
+    <row r="21" spans="1:29" ht="16.5" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>26</v>
       </c>
@@ -1225,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
@@ -1238,7 +1601,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1">
+    <row r="22" spans="1:29" ht="45.75" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>27</v>
       </c>
@@ -1260,8 +1623,29 @@
       <c r="G22" s="9">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1">
+      <c r="W22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" s="8">
+        <v>500</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>1500</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>2500</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="30.75" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1283,8 +1667,35 @@
       <c r="G23" s="5">
         <v>176</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" thickBot="1">
+      <c r="W23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" s="19">
+        <f>ABS((B31-L32)/B31)</f>
+        <v>2.1390374331550728E-2</v>
+      </c>
+      <c r="Y23" s="19">
+        <f t="shared" ref="Y23:AC23" si="4">ABS((C31-M32)/C31)</f>
+        <v>1.8240343347639475E-2</v>
+      </c>
+      <c r="Z23" s="19">
+        <f t="shared" si="4"/>
+        <v>1.3728323699421929E-2</v>
+      </c>
+      <c r="AA23" s="19">
+        <f t="shared" si="4"/>
+        <v>6.4371676462357669E-3</v>
+      </c>
+      <c r="AB23" s="19">
+        <f t="shared" si="4"/>
+        <v>1.8548955153792117E-2</v>
+      </c>
+      <c r="AC23" s="19">
+        <f t="shared" si="4"/>
+        <v>1.4790468364831529E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="30.75" thickBot="1">
       <c r="K24" s="7" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1717,35 @@
       <c r="Q24" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" ht="30.75" thickBot="1">
+      <c r="W24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="19">
+        <f t="shared" ref="X24:X26" si="5">ABS((B32-L33)/B32)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Y24" s="19">
+        <f t="shared" ref="Y24:Y26" si="6">ABS((C32-M33)/C32)</f>
+        <v>2.1052631578947385E-2</v>
+      </c>
+      <c r="Z24" s="19">
+        <f t="shared" ref="Z24:Z26" si="7">ABS((D32-N33)/D32)</f>
+        <v>5.2631578947368467E-2</v>
+      </c>
+      <c r="AA24" s="19">
+        <f t="shared" ref="AA24:AA26" si="8">ABS((E32-O33)/E32)</f>
+        <v>3.3333333333333368E-2</v>
+      </c>
+      <c r="AB24" s="19">
+        <f t="shared" ref="AB24:AB26" si="9">ABS((F32-P33)/F32)</f>
+        <v>1.1764705882352951E-2</v>
+      </c>
+      <c r="AC24" s="19">
+        <f t="shared" ref="AC24:AC26" si="10">ABS((G32-Q33)/G32)</f>
+        <v>6.2500000000000056E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="30.75" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1335,8 +1773,35 @@
       <c r="Q25" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" ht="30.75" thickBot="1">
+      <c r="W25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="X25" s="19">
+        <f t="shared" si="5"/>
+        <v>2.4096385542168676E-2</v>
+      </c>
+      <c r="Y25" s="19">
+        <f t="shared" si="6"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="Z25" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="19">
+        <f t="shared" si="8"/>
+        <v>5.7692307692307696E-2</v>
+      </c>
+      <c r="AB25" s="19">
+        <f t="shared" si="9"/>
+        <v>0.15217391304347827</v>
+      </c>
+      <c r="AC25" s="19">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="45.75" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1364,8 +1829,35 @@
       <c r="Q26" s="9">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" ht="30.75" thickBot="1">
+      <c r="W26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="X26" s="19">
+        <f t="shared" si="5"/>
+        <v>2.192982456140382E-3</v>
+      </c>
+      <c r="Y26" s="19">
+        <f t="shared" si="6"/>
+        <v>6.2402496099844508E-3</v>
+      </c>
+      <c r="Z26" s="19">
+        <f t="shared" si="7"/>
+        <v>2.1482918096374724E-2</v>
+      </c>
+      <c r="AA26" s="19">
+        <f t="shared" si="8"/>
+        <v>7.7703885194259678E-2</v>
+      </c>
+      <c r="AB26" s="19">
+        <f t="shared" si="9"/>
+        <v>0.1711177052423343</v>
+      </c>
+      <c r="AC26" s="19">
+        <f t="shared" si="10"/>
+        <v>0.18526543878656562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="30.75" thickBot="1">
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
@@ -1388,9 +1880,9 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" thickBot="1">
+    <row r="29" spans="1:29" ht="15.75" thickBot="1">
       <c r="L29" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -1409,7 +1901,7 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
     </row>
-    <row r="30" spans="1:28" ht="30.75" thickBot="1">
+    <row r="30" spans="1:29" ht="30.75" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
@@ -1432,27 +1924,33 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="45.75" thickBot="1">
+    <row r="31" spans="1:29" ht="45.75" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="14">
-        <v>9.35E-2</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.18640000000000001</v>
-      </c>
-      <c r="D31" s="14">
-        <v>0.27679999999999999</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0.35730000000000001</v>
-      </c>
-      <c r="F31" s="14">
-        <v>0.4259</v>
-      </c>
-      <c r="G31" s="14">
-        <v>0.48680000000000001</v>
+      <c r="B31" s="20">
+        <f>0.0935*100</f>
+        <v>9.35</v>
+      </c>
+      <c r="C31" s="20">
+        <f>100*0.1864</f>
+        <v>18.64</v>
+      </c>
+      <c r="D31" s="20">
+        <f>100*0.2768</f>
+        <v>27.68</v>
+      </c>
+      <c r="E31" s="20">
+        <f>100*0.3573</f>
+        <v>35.730000000000004</v>
+      </c>
+      <c r="F31" s="20">
+        <f>100*0.4259</f>
+        <v>42.59</v>
+      </c>
+      <c r="G31" s="20">
+        <f>100*0.4868</f>
+        <v>48.68</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>30</v>
@@ -1476,7 +1974,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="30.75" thickBot="1">
+    <row r="32" spans="1:29" ht="30.75" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -1568,23 +2066,29 @@
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="C34" s="14">
-        <v>0.76919999999999999</v>
-      </c>
-      <c r="D34" s="14">
-        <v>0.67030000000000001</v>
-      </c>
-      <c r="E34" s="14">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="F34" s="14">
-        <v>0.50549999999999995</v>
-      </c>
-      <c r="G34" s="14">
-        <v>0.46150000000000002</v>
+      <c r="B34" s="20">
+        <f>100*0.912</f>
+        <v>91.2</v>
+      </c>
+      <c r="C34" s="20">
+        <f>100*0.7692</f>
+        <v>76.92</v>
+      </c>
+      <c r="D34" s="20">
+        <f>100*0.6703</f>
+        <v>67.03</v>
+      </c>
+      <c r="E34" s="20">
+        <f>100*0.5714</f>
+        <v>57.14</v>
+      </c>
+      <c r="F34" s="20">
+        <f>100*0.5055</f>
+        <v>50.55</v>
+      </c>
+      <c r="G34" s="20">
+        <f>100*0.4615</f>
+        <v>46.150000000000006</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>4</v>
@@ -1632,11 +2136,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="45">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="18" t="s">
-        <v>42</v>
+      <c r="K36" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
@@ -1647,10 +2151,29 @@
       <c r="R36" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="W2:W3"/>
   </mergeCells>
+  <conditionalFormatting sqref="X4:Z19">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23:AC26">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
+++ b/04_pulmonary_shunt/pulmonary_shunt_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>Time</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>% Difference</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -312,11 +315,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -324,16 +327,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -351,63 +358,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -710,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T23" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -778,19 +729,19 @@
       <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="19">
         <v>0</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="19">
         <v>10</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="19">
         <v>1</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="19">
         <v>1</v>
       </c>
     </row>
@@ -823,17 +774,17 @@
       <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="3" t="s">
+      <c r="W3" s="21"/>
+      <c r="X3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -866,20 +817,23 @@
         <v>40</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="20">
         <f>ABS((B3-L4)/B3)</f>
         <v>2.197802197802198E-2</v>
       </c>
-      <c r="Y4" s="19">
-        <f t="shared" ref="Y4:AA4" si="0">ABS((C3-M4)/C3)</f>
+      <c r="Y4" s="20">
+        <f t="shared" ref="Y4:Z4" si="0">ABS((C3-M4)/C3)</f>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="20">
         <f t="shared" si="0"/>
         <v>0.24528301886792453</v>
+      </c>
+      <c r="AA4" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="30.75" thickBot="1">
@@ -911,20 +865,23 @@
         <v>0.183</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="20">
         <f t="shared" ref="X5:X19" si="1">ABS((B4-L5)/B4)</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="20">
         <f t="shared" ref="Y5:Y19" si="2">ABS((C4-M5)/C4)</f>
         <v>3.3333333333333368E-2</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="20">
         <f t="shared" ref="Z5:Z19" si="3">ABS((D4-N5)/D4)</f>
         <v>1.6666666666666684E-2</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="30.75" thickBot="1">
@@ -956,20 +913,23 @@
         <v>29</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="20">
         <f t="shared" si="1"/>
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="20">
         <f t="shared" si="2"/>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="20">
         <f t="shared" si="3"/>
         <v>0.12121212121212122</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="30.75" thickBot="1">
@@ -1001,20 +961,23 @@
         <v>0.15</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="20">
         <f t="shared" si="2"/>
         <v>1.5384615384615398E-2</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z7" s="20">
         <f t="shared" si="3"/>
         <v>7.1428571428571286E-2</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="45.75" thickBot="1">
@@ -1046,20 +1009,23 @@
         <v>83</v>
       </c>
       <c r="O8" s="5"/>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="19">
+      <c r="Y8" s="20">
         <f t="shared" si="2"/>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="20">
         <f t="shared" si="3"/>
         <v>0.20192307692307693</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="45.75" thickBot="1">
@@ -1091,20 +1057,23 @@
         <v>5266</v>
       </c>
       <c r="O9" s="5"/>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="19">
+      <c r="X9" s="20">
         <f t="shared" si="1"/>
         <v>2.2820800598578377E-2</v>
       </c>
-      <c r="Y9" s="19">
+      <c r="Y9" s="20">
         <f t="shared" si="2"/>
         <v>1.7844396859386152E-3</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z9" s="20">
         <f t="shared" si="3"/>
         <v>7.5166842290129959E-2</v>
+      </c>
+      <c r="AA9" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="30.75" thickBot="1">
@@ -1136,20 +1105,23 @@
         <v>72</v>
       </c>
       <c r="O10" s="5"/>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="X10" s="19">
+      <c r="X10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="20">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="20">
         <f t="shared" si="3"/>
         <v>8.8607594936708861E-2</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="30.75" thickBot="1">
@@ -1181,20 +1153,23 @@
         <v>73</v>
       </c>
       <c r="O11" s="5"/>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="20">
         <f t="shared" si="1"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="Y11" s="20">
         <f t="shared" si="2"/>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z11" s="20">
         <f t="shared" si="3"/>
         <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="AA11" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="30.75" thickBot="1">
@@ -1226,20 +1201,23 @@
         <v>1.57</v>
       </c>
       <c r="O12" s="5"/>
-      <c r="W12" s="15" t="s">
+      <c r="W12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="19">
+      <c r="X12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="19">
+      <c r="Y12" s="20">
         <f t="shared" si="2"/>
         <v>0.10588235294117644</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z12" s="20">
         <f t="shared" si="3"/>
         <v>0.12777777777777777</v>
+      </c>
+      <c r="AA12" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="30.75" thickBot="1">
@@ -1271,20 +1249,23 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O13" s="5"/>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="X13" s="19">
+      <c r="X13" s="20">
         <f t="shared" si="1"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Y13" s="19">
+      <c r="Y13" s="20">
         <f t="shared" si="2"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="20">
         <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
+      </c>
+      <c r="AA13" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="45.75" thickBot="1">
@@ -1316,20 +1297,23 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="O14" s="5"/>
-      <c r="W14" s="15" t="s">
+      <c r="W14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="19">
+      <c r="X14" s="20">
         <f t="shared" si="1"/>
         <v>2.5000000000000022E-2</v>
       </c>
-      <c r="Y14" s="19">
+      <c r="Y14" s="20">
         <f t="shared" si="2"/>
         <v>9.2307692307692382E-2</v>
       </c>
-      <c r="Z14" s="19">
+      <c r="Z14" s="20">
         <f t="shared" si="3"/>
         <v>5.4933333333333332</v>
+      </c>
+      <c r="AA14" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="30.75" thickBot="1">
@@ -1361,20 +1345,23 @@
         <v>493.5</v>
       </c>
       <c r="O15" s="5"/>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X15" s="19">
+      <c r="X15" s="20">
         <f t="shared" si="1"/>
         <v>0.11428571428571421</v>
       </c>
-      <c r="Y15" s="19">
+      <c r="Y15" s="20">
         <f t="shared" si="2"/>
         <v>3.4117647058823482E-2</v>
       </c>
-      <c r="Z15" s="19">
+      <c r="Z15" s="20">
         <f t="shared" si="3"/>
         <v>0.91972999349381912</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="30.75" thickBot="1">
@@ -1406,20 +1393,23 @@
         <v>5257</v>
       </c>
       <c r="O16" s="5"/>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16" s="20">
         <f t="shared" si="1"/>
         <v>1.4779235174579716E-3</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16" s="20">
         <f t="shared" si="2"/>
         <v>2.032144836504711E-3</v>
       </c>
-      <c r="Z16" s="19">
+      <c r="Z16" s="20">
         <f t="shared" si="3"/>
         <v>2.4856241884622519E-2</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="45.75" thickBot="1">
@@ -1451,20 +1441,23 @@
         <v>2349</v>
       </c>
       <c r="O17" s="5"/>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X17" s="19">
+      <c r="X17" s="20">
         <f t="shared" si="1"/>
         <v>4.528763769889841E-2</v>
       </c>
-      <c r="Y17" s="19">
+      <c r="Y17" s="20">
         <f t="shared" si="2"/>
         <v>4.528763769889841E-2</v>
       </c>
-      <c r="Z17" s="19">
+      <c r="Z17" s="20">
         <f t="shared" si="3"/>
         <v>4.4733631557543715E-2</v>
+      </c>
+      <c r="AA17" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="30.75" thickBot="1">
@@ -1496,20 +1489,23 @@
         <v>2908</v>
       </c>
       <c r="O18" s="5"/>
-      <c r="W18" s="15" t="s">
+      <c r="W18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="X18" s="19">
+      <c r="X18" s="20">
         <f t="shared" si="1"/>
         <v>4.0175557056043212E-2</v>
       </c>
-      <c r="Y18" s="19">
+      <c r="Y18" s="20">
         <f t="shared" si="2"/>
         <v>4.1188386225523295E-2</v>
       </c>
-      <c r="Z18" s="19">
+      <c r="Z18" s="20">
         <f t="shared" si="3"/>
         <v>1.8562267971650354E-2</v>
+      </c>
+      <c r="AA18" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="30.75" thickBot="1">
@@ -1526,20 +1522,23 @@
         <v>45</v>
       </c>
       <c r="O19" s="5"/>
-      <c r="W19" s="15" t="s">
+      <c r="W19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="20">
         <f t="shared" si="1"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Y19" s="20">
         <f t="shared" si="2"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="Z19" s="20">
         <f t="shared" si="3"/>
         <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="15.75" thickBot="1">
@@ -1626,22 +1625,22 @@
       <c r="W22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="19">
         <v>500</v>
       </c>
-      <c r="Y22" s="8">
+      <c r="Y22" s="19">
         <v>1000</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="Z22" s="19">
         <v>1500</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AA22" s="19">
         <v>2000</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AB22" s="19">
         <v>2500</v>
       </c>
-      <c r="AC22" s="8">
+      <c r="AC22" s="19">
         <v>3000</v>
       </c>
     </row>
@@ -1667,30 +1666,30 @@
       <c r="G23" s="5">
         <v>176</v>
       </c>
-      <c r="W23" s="15" t="s">
+      <c r="W23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="X23" s="19">
+      <c r="X23" s="20">
         <f>ABS((B31-L32)/B31)</f>
         <v>2.1390374331550728E-2</v>
       </c>
-      <c r="Y23" s="19">
+      <c r="Y23" s="20">
         <f t="shared" ref="Y23:AC23" si="4">ABS((C31-M32)/C31)</f>
         <v>1.8240343347639475E-2</v>
       </c>
-      <c r="Z23" s="19">
+      <c r="Z23" s="20">
         <f t="shared" si="4"/>
         <v>1.3728323699421929E-2</v>
       </c>
-      <c r="AA23" s="19">
+      <c r="AA23" s="20">
         <f t="shared" si="4"/>
         <v>6.4371676462357669E-3</v>
       </c>
-      <c r="AB23" s="19">
+      <c r="AB23" s="20">
         <f t="shared" si="4"/>
         <v>1.8548955153792117E-2</v>
       </c>
-      <c r="AC23" s="19">
+      <c r="AC23" s="20">
         <f t="shared" si="4"/>
         <v>1.4790468364831529E-2</v>
       </c>
@@ -1717,30 +1716,30 @@
       <c r="Q24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W24" s="15" t="s">
+      <c r="W24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X24" s="19">
+      <c r="X24" s="20">
         <f t="shared" ref="X24:X26" si="5">ABS((B32-L33)/B32)</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Y24" s="19">
+      <c r="Y24" s="20">
         <f t="shared" ref="Y24:Y26" si="6">ABS((C32-M33)/C32)</f>
         <v>2.1052631578947385E-2</v>
       </c>
-      <c r="Z24" s="19">
+      <c r="Z24" s="20">
         <f t="shared" ref="Z24:Z26" si="7">ABS((D32-N33)/D32)</f>
         <v>5.2631578947368467E-2</v>
       </c>
-      <c r="AA24" s="19">
+      <c r="AA24" s="20">
         <f t="shared" ref="AA24:AA26" si="8">ABS((E32-O33)/E32)</f>
         <v>3.3333333333333368E-2</v>
       </c>
-      <c r="AB24" s="19">
+      <c r="AB24" s="20">
         <f t="shared" ref="AB24:AB26" si="9">ABS((F32-P33)/F32)</f>
         <v>1.1764705882352951E-2</v>
       </c>
-      <c r="AC24" s="19">
+      <c r="AC24" s="20">
         <f t="shared" ref="AC24:AC26" si="10">ABS((G32-Q33)/G32)</f>
         <v>6.2500000000000056E-3</v>
       </c>
@@ -1773,30 +1772,30 @@
       <c r="Q25" s="3">
         <v>6</v>
       </c>
-      <c r="W25" s="15" t="s">
+      <c r="W25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X25" s="19">
+      <c r="X25" s="20">
         <f t="shared" si="5"/>
         <v>2.4096385542168676E-2</v>
       </c>
-      <c r="Y25" s="19">
+      <c r="Y25" s="20">
         <f t="shared" si="6"/>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="Z25" s="19">
+      <c r="Z25" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="19">
+      <c r="AA25" s="20">
         <f t="shared" si="8"/>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="AB25" s="19">
+      <c r="AB25" s="20">
         <f t="shared" si="9"/>
         <v>0.15217391304347827</v>
       </c>
-      <c r="AC25" s="19">
+      <c r="AC25" s="20">
         <f t="shared" si="10"/>
         <v>0.16666666666666666</v>
       </c>
@@ -1829,30 +1828,30 @@
       <c r="Q26" s="9">
         <v>0.08</v>
       </c>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="X26" s="19">
+      <c r="X26" s="20">
         <f t="shared" si="5"/>
         <v>2.192982456140382E-3</v>
       </c>
-      <c r="Y26" s="19">
+      <c r="Y26" s="20">
         <f t="shared" si="6"/>
         <v>6.2402496099844508E-3</v>
       </c>
-      <c r="Z26" s="19">
+      <c r="Z26" s="20">
         <f t="shared" si="7"/>
         <v>2.1482918096374724E-2</v>
       </c>
-      <c r="AA26" s="19">
+      <c r="AA26" s="20">
         <f t="shared" si="8"/>
         <v>7.7703885194259678E-2</v>
       </c>
-      <c r="AB26" s="19">
+      <c r="AB26" s="20">
         <f t="shared" si="9"/>
         <v>0.1711177052423343</v>
       </c>
-      <c r="AC26" s="19">
+      <c r="AC26" s="20">
         <f t="shared" si="10"/>
         <v>0.18526543878656562</v>
       </c>
@@ -1928,27 +1927,27 @@
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="16">
         <f>0.0935*100</f>
         <v>9.35</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="16">
         <f>100*0.1864</f>
         <v>18.64</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="16">
         <f>100*0.2768</f>
         <v>27.68</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="16">
         <f>100*0.3573</f>
         <v>35.730000000000004</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="16">
         <f>100*0.4259</f>
         <v>42.59</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="16">
         <f>100*0.4868</f>
         <v>48.68</v>
       </c>
@@ -2066,27 +2065,27 @@
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="16">
         <f>100*0.912</f>
         <v>91.2</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="16">
         <f>100*0.7692</f>
         <v>76.92</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="16">
         <f>100*0.6703</f>
         <v>67.03</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="16">
         <f>100*0.5714</f>
         <v>57.14</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="16">
         <f>100*0.5055</f>
         <v>50.55</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="16">
         <f>100*0.4615</f>
         <v>46.150000000000006</v>
       </c>
@@ -2139,7 +2138,7 @@
       <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="15" t="s">
         <v>39</v>
       </c>
       <c r="L36" s="12"/>
@@ -2157,25 +2156,25 @@
     <mergeCell ref="W2:W3"/>
   </mergeCells>
   <conditionalFormatting sqref="X4:Z19">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>0.5</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:AC26">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>0.5</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
